--- a/url_201106.xlsx
+++ b/url_201106.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/WORKS Drive/VS Code/others_repo/Excel_Image_Viewer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qndlf\workspace\Excel_Image_Viewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644A8281-AED2-5946-A906-24E1F96B3456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42649DE2-BE49-43EB-8989-16FBAB679C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="960" windowWidth="27360" windowHeight="16540" xr2:uid="{4133B811-B92E-7241-A3D3-4B11C30C6B6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4133B811-B92E-7241-A3D3-4B11C30C6B6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1690,7 +1690,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2106,16 +2106,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BBA3C9-6C4E-5F49-BA34-45A3051ACCEE}">
   <dimension ref="A1:C945"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>75</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>81</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>83</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>84</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>87</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>88</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>89</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>90</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>92</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>94</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>95</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>96</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>97</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>98</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>99</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>100</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>101</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>102</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>103</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>105</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>106</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>107</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>108</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>109</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>110</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>111</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>112</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>113</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>114</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>115</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>116</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>117</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>118</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>119</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>120</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>121</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>122</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>123</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>124</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>125</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>126</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>127</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>128</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>129</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>130</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>131</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>132</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>133</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>134</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>135</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>136</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>137</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>138</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>139</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>140</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>141</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>142</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>143</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>144</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>145</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>146</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>147</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>148</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>149</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>150</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>151</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>152</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>153</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>154</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>155</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>156</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>157</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>158</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>159</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>160</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>161</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>162</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>163</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>164</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>165</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>166</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>167</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>168</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>169</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>170</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>171</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>172</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>173</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>174</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>175</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>176</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>177</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>178</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>179</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>180</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>181</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>182</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>183</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>184</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>185</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>186</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>187</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>188</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>189</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>190</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>191</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>192</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>193</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>194</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>195</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>196</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>197</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>198</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>199</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>200</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>201</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>202</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>203</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>204</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>205</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>206</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>207</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>208</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>209</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>210</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>211</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>212</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>213</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>214</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>215</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>216</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>217</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>218</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>219</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>220</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>221</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>222</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>223</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>224</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>225</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>226</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>227</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>228</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>229</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>230</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>231</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>232</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>233</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>234</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>235</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>236</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>237</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>238</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>239</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>240</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>241</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>242</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>243</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>244</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>245</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>246</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>247</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>248</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>249</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>250</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>251</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>252</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>253</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>254</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>255</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>256</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>257</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>258</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>259</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>260</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>261</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>262</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>263</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>264</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>265</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>266</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>267</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>268</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>269</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>270</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>271</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>272</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>273</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>274</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>275</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>276</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>277</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>278</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>279</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>280</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>281</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>282</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>283</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>284</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>285</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>286</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>287</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>288</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>289</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>290</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>291</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>292</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>293</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>294</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>295</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>296</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>297</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>298</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>299</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>300</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>301</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>302</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>303</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>304</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>305</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>306</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
         <v>307</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
         <v>308</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>309</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>310</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>311</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>312</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>313</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
         <v>314</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>315</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>316</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
         <v>317</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
         <v>318</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>319</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
         <v>320</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
         <v>321</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
         <v>322</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
         <v>323</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
         <v>324</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
         <v>325</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
         <v>326</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
         <v>327</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
         <v>328</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
         <v>329</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292" s="1" t="s">
         <v>330</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293" s="1" t="s">
         <v>331</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294" s="1" t="s">
         <v>332</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
         <v>333</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
         <v>334</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
         <v>335</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298" s="1" t="s">
         <v>336</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
         <v>337</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300" s="2" t="s">
         <v>338</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
         <v>339</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A302" s="1" t="s">
         <v>340</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
         <v>341</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A304" s="1" t="s">
         <v>342</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
         <v>343</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
         <v>344</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
         <v>345</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
         <v>346</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
         <v>347</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A310" s="1" t="s">
         <v>348</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
         <v>349</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
         <v>350</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
         <v>351</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
         <v>352</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
         <v>353</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
         <v>354</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
         <v>355</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A318" s="1" t="s">
         <v>356</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
         <v>357</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A320" s="1" t="s">
         <v>358</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
         <v>359</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
         <v>360</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
         <v>361</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
         <v>362</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
         <v>363</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
         <v>364</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
         <v>365</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
         <v>366</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
         <v>367</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
         <v>368</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
         <v>369</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
         <v>370</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
         <v>371</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A334" s="1" t="s">
         <v>372</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
         <v>373</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
         <v>374</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
         <v>375</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A338" s="1" t="s">
         <v>376</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A339" s="1" t="s">
         <v>377</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A340" s="1" t="s">
         <v>378</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A341" s="1" t="s">
         <v>379</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A342" s="1" t="s">
         <v>380</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
         <v>381</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
         <v>382</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
         <v>383</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
         <v>384</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
         <v>385</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A348" s="1" t="s">
         <v>386</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
         <v>387</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
         <v>388</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A351" s="1" t="s">
         <v>389</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A352" s="1" t="s">
         <v>390</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
         <v>391</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
         <v>392</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A355" s="1" t="s">
         <v>393</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A356" s="1" t="s">
         <v>394</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
         <v>395</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
         <v>396</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
         <v>397</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A360" s="1" t="s">
         <v>398</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
         <v>399</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A362" s="1" t="s">
         <v>400</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A363" s="1" t="s">
         <v>401</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A364" s="1" t="s">
         <v>402</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
         <v>403</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A366" s="1" t="s">
         <v>404</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A367" s="1" t="s">
         <v>405</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
         <v>406</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A369" s="1" t="s">
         <v>407</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A370" s="1" t="s">
         <v>408</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
         <v>409</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A372" s="1" t="s">
         <v>410</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A373" s="1" t="s">
         <v>411</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A374" s="1" t="s">
         <v>412</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
         <v>413</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A376" s="1" t="s">
         <v>414</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
         <v>415</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A378" s="1" t="s">
         <v>416</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A379" s="1" t="s">
         <v>417</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A380" s="1" t="s">
         <v>418</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A381" s="1" t="s">
         <v>419</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A382" s="1" t="s">
         <v>420</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A383" s="1" t="s">
         <v>421</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A384" s="1" t="s">
         <v>422</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A385" s="1" t="s">
         <v>423</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A386" s="1" t="s">
         <v>424</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A387" s="1" t="s">
         <v>425</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A388" s="1" t="s">
         <v>426</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
         <v>427</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A390" s="1" t="s">
         <v>428</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
         <v>429</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A392" s="1" t="s">
         <v>430</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A393" s="1" t="s">
         <v>431</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A394" s="1" t="s">
         <v>432</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A395" s="1" t="s">
         <v>433</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A396" s="1" t="s">
         <v>434</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A397" s="1" t="s">
         <v>435</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A398" s="1" t="s">
         <v>436</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A399" s="1" t="s">
         <v>437</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A400" s="1" t="s">
         <v>438</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A401" s="1" t="s">
         <v>439</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A402" s="1" t="s">
         <v>440</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A403" s="1" t="s">
         <v>441</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A404" s="1" t="s">
         <v>442</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A405" s="1" t="s">
         <v>443</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A406" s="1" t="s">
         <v>444</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A407" s="1" t="s">
         <v>445</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A408" s="1" t="s">
         <v>446</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A409" s="1" t="s">
         <v>447</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A410" s="1" t="s">
         <v>448</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A411" s="1" t="s">
         <v>449</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A412" s="1" t="s">
         <v>450</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A413" s="1" t="s">
         <v>451</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A414" s="1" t="s">
         <v>452</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A415" s="1" t="s">
         <v>453</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A416" s="1" t="s">
         <v>454</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A417" s="1" t="s">
         <v>455</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A418" s="1" t="s">
         <v>456</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A419" s="1" t="s">
         <v>457</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A420" s="1" t="s">
         <v>458</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A421" s="1" t="s">
         <v>459</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A422" s="1" t="s">
         <v>460</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A423" s="1" t="s">
         <v>461</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A424" s="1" t="s">
         <v>462</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A425" s="1" t="s">
         <v>463</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A426" s="1" t="s">
         <v>464</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A427" s="1" t="s">
         <v>465</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A428" s="1" t="s">
         <v>466</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A429" s="1" t="s">
         <v>467</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A430" s="1" t="s">
         <v>468</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A431" s="1" t="s">
         <v>469</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A432" s="1" t="s">
         <v>470</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A433" s="1" t="s">
         <v>471</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A434" s="1" t="s">
         <v>472</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A435" s="1" t="s">
         <v>473</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A436" s="1" t="s">
         <v>474</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A437" s="1" t="s">
         <v>475</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A438" s="1" t="s">
         <v>476</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A439" s="1" t="s">
         <v>477</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A440" s="1" t="s">
         <v>478</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A441" s="1" t="s">
         <v>479</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A442" s="1" t="s">
         <v>480</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A443" s="1" t="s">
         <v>481</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A444" s="1" t="s">
         <v>482</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A445" s="1" t="s">
         <v>483</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A446" s="1" t="s">
         <v>484</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A447" s="1" t="s">
         <v>485</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A448" s="1" t="s">
         <v>486</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A449" s="1" t="s">
         <v>487</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A450" s="1" t="s">
         <v>488</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A451" s="1" t="s">
         <v>489</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A452" s="1" t="s">
         <v>490</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A453" s="1" t="s">
         <v>491</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A454" s="1" t="s">
         <v>492</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A455" s="1" t="s">
         <v>493</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A456" s="1" t="s">
         <v>494</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A457" s="1" t="s">
         <v>495</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A458" s="1" t="s">
         <v>496</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A459" s="1" t="s">
         <v>497</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A460" s="1" t="s">
         <v>498</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A461" s="1" t="s">
         <v>499</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A462" s="1" t="s">
         <v>500</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A463" s="1" t="s">
         <v>501</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A464" s="1" t="s">
         <v>502</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A465" s="1" t="s">
         <v>503</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A466" s="1" t="s">
         <v>504</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A467" s="1" t="s">
         <v>505</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A468" s="1" t="s">
         <v>506</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A469" s="1" t="s">
         <v>507</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A470" s="1" t="s">
         <v>508</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A471" s="1" t="s">
         <v>509</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A472" s="1" t="s">
         <v>510</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A473" s="1" t="s">
         <v>511</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A474" s="1" t="s">
         <v>512</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A475" s="1" t="s">
         <v>513</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A476" s="1" t="s">
         <v>514</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A477" s="1" t="s">
         <v>515</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A478" s="1" t="s">
         <v>516</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A479" s="1" t="s">
         <v>517</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A480" s="1" t="s">
         <v>518</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A481" s="1" t="s">
         <v>519</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A482" s="1" t="s">
         <v>520</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A483" s="1" t="s">
         <v>521</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A484" s="1" t="s">
         <v>522</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A485" s="1" t="s">
         <v>523</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A486" s="1" t="s">
         <v>524</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A487" s="1" t="s">
         <v>525</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A488" s="1" t="s">
         <v>526</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A489" s="1" t="s">
         <v>527</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A490" s="1" t="s">
         <v>528</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A491" s="1" t="s">
         <v>529</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A492" s="1" t="s">
         <v>530</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A493" s="1" t="s">
         <v>531</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A494" s="1" t="s">
         <v>532</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A495" s="1" t="s">
         <v>533</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A496" s="1" t="s">
         <v>534</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A497" s="1" t="s">
         <v>535</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A498" s="1" t="s">
         <v>536</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A499" s="1" t="s">
         <v>537</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A500" s="2" t="s">
         <v>538</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A501" s="1" t="s">
         <v>0</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A502" s="1" t="s">
         <v>1</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A503" s="1" t="s">
         <v>2</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A504" s="1" t="s">
         <v>3</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A505" s="1" t="s">
         <v>4</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A506" s="1" t="s">
         <v>5</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A507" s="1" t="s">
         <v>6</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A508" s="1" t="s">
         <v>7</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A509" s="1" t="s">
         <v>8</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A510" s="1" t="s">
         <v>9</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A511" s="1" t="s">
         <v>10</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A512" s="1" t="s">
         <v>11</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A513" s="1" t="s">
         <v>12</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A514" s="1" t="s">
         <v>13</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A515" s="1" t="s">
         <v>14</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A516" s="1" t="s">
         <v>15</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A517" s="1" t="s">
         <v>16</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A518" s="1" t="s">
         <v>5</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A519" s="1" t="s">
         <v>17</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A520" s="1" t="s">
         <v>18</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A521" s="1" t="s">
         <v>19</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A522" s="1" t="s">
         <v>20</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A523" s="1" t="s">
         <v>21</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A524" s="1" t="s">
         <v>22</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A525" s="1" t="s">
         <v>23</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A526" s="1" t="s">
         <v>24</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A527" s="1" t="s">
         <v>25</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A528" s="1" t="s">
         <v>26</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A529" s="1" t="s">
         <v>27</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A530" s="1" t="s">
         <v>28</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A531" s="1" t="s">
         <v>29</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A532" s="1" t="s">
         <v>30</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A533" s="1" t="s">
         <v>31</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A534" s="1" t="s">
         <v>32</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A535" s="1" t="s">
         <v>33</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A536" s="1" t="s">
         <v>34</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A537" s="1" t="s">
         <v>25</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A538" s="1" t="s">
         <v>7</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A539" s="1" t="s">
         <v>35</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A540" s="1" t="s">
         <v>539</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A541" s="1" t="s">
         <v>36</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A542" s="1" t="s">
         <v>37</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A543" s="1" t="s">
         <v>38</v>
       </c>
@@ -8088,1611 +8088,1611 @@
         <v>546</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
     </row>
-    <row r="545" spans="1:2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A545" s="1"/>
       <c r="B545" s="6"/>
     </row>
-    <row r="546" spans="1:2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A546" s="1"/>
       <c r="B546" s="6"/>
     </row>
-    <row r="547" spans="1:2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A547" s="1"/>
       <c r="B547" s="6"/>
     </row>
-    <row r="548" spans="1:2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A548" s="1"/>
       <c r="B548" s="6"/>
     </row>
-    <row r="549" spans="1:2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A549" s="1"/>
       <c r="B549" s="6"/>
     </row>
-    <row r="550" spans="1:2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A550" s="1"/>
       <c r="B550" s="6"/>
     </row>
-    <row r="551" spans="1:2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A551" s="1"/>
       <c r="B551" s="6"/>
     </row>
-    <row r="552" spans="1:2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A552" s="1"/>
       <c r="B552" s="6"/>
     </row>
-    <row r="553" spans="1:2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A553" s="1"/>
       <c r="B553" s="6"/>
     </row>
-    <row r="554" spans="1:2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A554" s="1"/>
       <c r="B554" s="6"/>
     </row>
-    <row r="555" spans="1:2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A555" s="1"/>
       <c r="B555" s="6"/>
     </row>
-    <row r="556" spans="1:2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A556" s="1"/>
       <c r="B556" s="6"/>
     </row>
-    <row r="557" spans="1:2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A557" s="1"/>
       <c r="B557" s="6"/>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A558" s="1"/>
       <c r="B558" s="6"/>
     </row>
-    <row r="559" spans="1:2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A559" s="3"/>
       <c r="B559" s="6"/>
     </row>
-    <row r="560" spans="1:2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A560" s="1"/>
       <c r="B560" s="6"/>
     </row>
-    <row r="561" spans="1:2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A561" s="1"/>
       <c r="B561" s="6"/>
     </row>
-    <row r="562" spans="1:2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A562" s="1"/>
       <c r="B562" s="6"/>
     </row>
-    <row r="563" spans="1:2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A563" s="1"/>
       <c r="B563" s="6"/>
     </row>
-    <row r="564" spans="1:2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A564" s="1"/>
       <c r="B564" s="6"/>
     </row>
-    <row r="565" spans="1:2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A565" s="1"/>
       <c r="B565" s="6"/>
     </row>
-    <row r="566" spans="1:2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A566" s="1"/>
       <c r="B566" s="6"/>
     </row>
-    <row r="567" spans="1:2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A567" s="1"/>
       <c r="B567" s="6"/>
     </row>
-    <row r="568" spans="1:2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A568" s="1"/>
       <c r="B568" s="6"/>
     </row>
-    <row r="569" spans="1:2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A569" s="1"/>
       <c r="B569" s="6"/>
     </row>
-    <row r="570" spans="1:2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A570" s="1"/>
       <c r="B570" s="6"/>
     </row>
-    <row r="571" spans="1:2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A571" s="1"/>
       <c r="B571" s="6"/>
     </row>
-    <row r="572" spans="1:2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A572" s="1"/>
       <c r="B572" s="6"/>
     </row>
-    <row r="573" spans="1:2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A573" s="1"/>
       <c r="B573" s="6"/>
     </row>
-    <row r="574" spans="1:2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A574" s="1"/>
       <c r="B574" s="6"/>
     </row>
-    <row r="575" spans="1:2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A575" s="1"/>
       <c r="B575" s="6"/>
     </row>
-    <row r="576" spans="1:2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A576" s="1"/>
       <c r="B576" s="6"/>
     </row>
-    <row r="577" spans="1:2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A577" s="1"/>
       <c r="B577" s="6"/>
     </row>
-    <row r="578" spans="1:2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A578" s="1"/>
       <c r="B578" s="6"/>
     </row>
-    <row r="579" spans="1:2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A579" s="1"/>
       <c r="B579" s="6"/>
     </row>
-    <row r="580" spans="1:2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A580" s="1"/>
       <c r="B580" s="6"/>
     </row>
-    <row r="581" spans="1:2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A581" s="1"/>
       <c r="B581" s="6"/>
     </row>
-    <row r="582" spans="1:2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A582" s="1"/>
       <c r="B582" s="6"/>
     </row>
-    <row r="583" spans="1:2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A583" s="1"/>
       <c r="B583" s="6"/>
     </row>
-    <row r="584" spans="1:2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A584" s="1"/>
       <c r="B584" s="6"/>
     </row>
-    <row r="585" spans="1:2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A585" s="1"/>
       <c r="B585" s="6"/>
     </row>
-    <row r="586" spans="1:2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A586" s="1"/>
       <c r="B586" s="6"/>
     </row>
-    <row r="587" spans="1:2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A587" s="1"/>
       <c r="B587" s="6"/>
     </row>
-    <row r="588" spans="1:2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A588" s="1"/>
       <c r="B588" s="6"/>
     </row>
-    <row r="589" spans="1:2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A589" s="1"/>
       <c r="B589" s="6"/>
     </row>
-    <row r="590" spans="1:2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A590" s="1"/>
       <c r="B590" s="6"/>
     </row>
-    <row r="591" spans="1:2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A591" s="1"/>
       <c r="B591" s="6"/>
     </row>
-    <row r="592" spans="1:2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A592" s="1"/>
       <c r="B592" s="6"/>
     </row>
-    <row r="593" spans="1:2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A593" s="1"/>
       <c r="B593" s="6"/>
     </row>
-    <row r="594" spans="1:2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A594" s="1"/>
       <c r="B594" s="6"/>
     </row>
-    <row r="595" spans="1:2">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A595" s="1"/>
       <c r="B595" s="6"/>
     </row>
-    <row r="596" spans="1:2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A596" s="1"/>
       <c r="B596" s="6"/>
     </row>
-    <row r="597" spans="1:2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A597" s="1"/>
       <c r="B597" s="6"/>
     </row>
-    <row r="598" spans="1:2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A598" s="1"/>
       <c r="B598" s="6"/>
     </row>
-    <row r="599" spans="1:2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A599" s="1"/>
       <c r="B599" s="6"/>
     </row>
-    <row r="600" spans="1:2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A600" s="1"/>
       <c r="B600" s="6"/>
     </row>
-    <row r="601" spans="1:2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A601" s="1"/>
       <c r="B601" s="6"/>
     </row>
-    <row r="602" spans="1:2">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A602" s="1"/>
       <c r="B602" s="6"/>
     </row>
-    <row r="603" spans="1:2">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A603" s="1"/>
       <c r="B603" s="6"/>
     </row>
-    <row r="604" spans="1:2">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A604" s="1"/>
       <c r="B604" s="6"/>
     </row>
-    <row r="605" spans="1:2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A605" s="1"/>
       <c r="B605" s="6"/>
     </row>
-    <row r="606" spans="1:2">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A606" s="1"/>
       <c r="B606" s="6"/>
     </row>
-    <row r="607" spans="1:2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A607" s="1"/>
       <c r="B607" s="6"/>
     </row>
-    <row r="608" spans="1:2">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A608" s="1"/>
       <c r="B608" s="6"/>
     </row>
-    <row r="609" spans="1:2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A609" s="1"/>
       <c r="B609" s="6"/>
     </row>
-    <row r="610" spans="1:2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A610" s="1"/>
       <c r="B610" s="6"/>
     </row>
-    <row r="611" spans="1:2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A611" s="1"/>
       <c r="B611" s="6"/>
     </row>
-    <row r="612" spans="1:2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A612" s="1"/>
       <c r="B612" s="6"/>
     </row>
-    <row r="613" spans="1:2">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A613" s="1"/>
       <c r="B613" s="6"/>
     </row>
-    <row r="614" spans="1:2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A614" s="1"/>
       <c r="B614" s="6"/>
     </row>
-    <row r="615" spans="1:2">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A615" s="1"/>
       <c r="B615" s="6"/>
     </row>
-    <row r="616" spans="1:2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A616" s="1"/>
       <c r="B616" s="6"/>
     </row>
-    <row r="617" spans="1:2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A617" s="1"/>
       <c r="B617" s="6"/>
     </row>
-    <row r="618" spans="1:2">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A618" s="1"/>
       <c r="B618" s="6"/>
     </row>
-    <row r="619" spans="1:2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A619" s="1"/>
       <c r="B619" s="6"/>
     </row>
-    <row r="620" spans="1:2">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A620" s="1"/>
       <c r="B620" s="6"/>
     </row>
-    <row r="621" spans="1:2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A621" s="1"/>
       <c r="B621" s="6"/>
     </row>
-    <row r="622" spans="1:2">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A622" s="1"/>
       <c r="B622" s="6"/>
     </row>
-    <row r="623" spans="1:2">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A623" s="1"/>
       <c r="B623" s="6"/>
     </row>
-    <row r="624" spans="1:2">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A624" s="1"/>
       <c r="B624" s="6"/>
     </row>
-    <row r="625" spans="1:2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A625" s="1"/>
       <c r="B625" s="6"/>
     </row>
-    <row r="626" spans="1:2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A626" s="1"/>
       <c r="B626" s="6"/>
     </row>
-    <row r="627" spans="1:2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A627" s="1"/>
       <c r="B627" s="6"/>
     </row>
-    <row r="628" spans="1:2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A628" s="1"/>
       <c r="B628" s="6"/>
     </row>
-    <row r="629" spans="1:2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A629" s="1"/>
       <c r="B629" s="6"/>
     </row>
-    <row r="630" spans="1:2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A630" s="1"/>
       <c r="B630" s="6"/>
     </row>
-    <row r="631" spans="1:2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A631" s="1"/>
       <c r="B631" s="6"/>
     </row>
-    <row r="632" spans="1:2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A632" s="1"/>
       <c r="B632" s="6"/>
     </row>
-    <row r="633" spans="1:2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A633" s="1"/>
       <c r="B633" s="6"/>
     </row>
-    <row r="634" spans="1:2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A634" s="1"/>
       <c r="B634" s="6"/>
     </row>
-    <row r="635" spans="1:2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A635" s="1"/>
       <c r="B635" s="6"/>
     </row>
-    <row r="636" spans="1:2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A636" s="1"/>
       <c r="B636" s="6"/>
     </row>
-    <row r="637" spans="1:2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A637" s="1"/>
       <c r="B637" s="6"/>
     </row>
-    <row r="638" spans="1:2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A638" s="1"/>
       <c r="B638" s="6"/>
     </row>
-    <row r="639" spans="1:2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A639" s="1"/>
       <c r="B639" s="6"/>
     </row>
-    <row r="640" spans="1:2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A640" s="1"/>
       <c r="B640" s="6"/>
     </row>
-    <row r="641" spans="1:2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A641" s="1"/>
       <c r="B641" s="6"/>
     </row>
-    <row r="642" spans="1:2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A642" s="1"/>
       <c r="B642" s="6"/>
     </row>
-    <row r="643" spans="1:2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A643" s="1"/>
       <c r="B643" s="6"/>
     </row>
-    <row r="644" spans="1:2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A644" s="1"/>
       <c r="B644" s="6"/>
     </row>
-    <row r="645" spans="1:2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A645" s="1"/>
       <c r="B645" s="6"/>
     </row>
-    <row r="646" spans="1:2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A646" s="1"/>
       <c r="B646" s="6"/>
     </row>
-    <row r="647" spans="1:2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A647" s="1"/>
       <c r="B647" s="6"/>
     </row>
-    <row r="648" spans="1:2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A648" s="1"/>
       <c r="B648" s="6"/>
     </row>
-    <row r="649" spans="1:2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A649" s="1"/>
       <c r="B649" s="6"/>
     </row>
-    <row r="650" spans="1:2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A650" s="1"/>
       <c r="B650" s="6"/>
     </row>
-    <row r="651" spans="1:2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A651" s="1"/>
       <c r="B651" s="6"/>
     </row>
-    <row r="652" spans="1:2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A652" s="1"/>
       <c r="B652" s="6"/>
     </row>
-    <row r="653" spans="1:2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A653" s="1"/>
       <c r="B653" s="6"/>
     </row>
-    <row r="654" spans="1:2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A654" s="1"/>
       <c r="B654" s="6"/>
     </row>
-    <row r="655" spans="1:2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A655" s="1"/>
       <c r="B655" s="6"/>
     </row>
-    <row r="656" spans="1:2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A656" s="1"/>
       <c r="B656" s="6"/>
     </row>
-    <row r="657" spans="1:2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A657" s="1"/>
       <c r="B657" s="6"/>
     </row>
-    <row r="658" spans="1:2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A658" s="1"/>
       <c r="B658" s="6"/>
     </row>
-    <row r="659" spans="1:2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A659" s="1"/>
       <c r="B659" s="6"/>
     </row>
-    <row r="660" spans="1:2">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A660" s="1"/>
       <c r="B660" s="6"/>
     </row>
-    <row r="661" spans="1:2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A661" s="1"/>
       <c r="B661" s="6"/>
     </row>
-    <row r="662" spans="1:2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A662" s="1"/>
       <c r="B662" s="6"/>
     </row>
-    <row r="663" spans="1:2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A663" s="1"/>
       <c r="B663" s="6"/>
     </row>
-    <row r="664" spans="1:2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A664" s="1"/>
       <c r="B664" s="6"/>
     </row>
-    <row r="665" spans="1:2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A665" s="1"/>
       <c r="B665" s="6"/>
     </row>
-    <row r="666" spans="1:2">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A666" s="1"/>
       <c r="B666" s="6"/>
     </row>
-    <row r="667" spans="1:2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A667" s="1"/>
       <c r="B667" s="6"/>
     </row>
-    <row r="668" spans="1:2">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A668" s="1"/>
       <c r="B668" s="6"/>
     </row>
-    <row r="669" spans="1:2">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A669" s="1"/>
       <c r="B669" s="6"/>
     </row>
-    <row r="670" spans="1:2">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A670" s="1"/>
       <c r="B670" s="6"/>
     </row>
-    <row r="671" spans="1:2">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A671" s="1"/>
       <c r="B671" s="6"/>
     </row>
-    <row r="672" spans="1:2">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A672" s="1"/>
       <c r="B672" s="6"/>
     </row>
-    <row r="673" spans="1:2">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A673" s="1"/>
       <c r="B673" s="6"/>
     </row>
-    <row r="674" spans="1:2">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A674" s="1"/>
       <c r="B674" s="6"/>
     </row>
-    <row r="675" spans="1:2">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A675" s="1"/>
       <c r="B675" s="6"/>
     </row>
-    <row r="676" spans="1:2">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A676" s="1"/>
       <c r="B676" s="6"/>
     </row>
-    <row r="677" spans="1:2">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A677" s="1"/>
       <c r="B677" s="6"/>
     </row>
-    <row r="678" spans="1:2">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A678" s="1"/>
       <c r="B678" s="6"/>
     </row>
-    <row r="679" spans="1:2">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A679" s="1"/>
       <c r="B679" s="6"/>
     </row>
-    <row r="680" spans="1:2">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A680" s="1"/>
       <c r="B680" s="6"/>
     </row>
-    <row r="681" spans="1:2">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A681" s="1"/>
       <c r="B681" s="6"/>
     </row>
-    <row r="682" spans="1:2">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A682" s="1"/>
       <c r="B682" s="6"/>
     </row>
-    <row r="683" spans="1:2">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A683" s="1"/>
       <c r="B683" s="6"/>
     </row>
-    <row r="684" spans="1:2">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A684" s="1"/>
       <c r="B684" s="6"/>
     </row>
-    <row r="685" spans="1:2">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A685" s="1"/>
       <c r="B685" s="6"/>
     </row>
-    <row r="686" spans="1:2">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A686" s="1"/>
       <c r="B686" s="6"/>
     </row>
-    <row r="687" spans="1:2">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A687" s="1"/>
       <c r="B687" s="6"/>
     </row>
-    <row r="688" spans="1:2">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A688" s="1"/>
       <c r="B688" s="6"/>
     </row>
-    <row r="689" spans="1:2">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A689" s="1"/>
       <c r="B689" s="6"/>
     </row>
-    <row r="690" spans="1:2">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A690" s="1"/>
       <c r="B690" s="6"/>
     </row>
-    <row r="691" spans="1:2">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A691" s="1"/>
       <c r="B691" s="6"/>
     </row>
-    <row r="692" spans="1:2">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A692" s="1"/>
       <c r="B692" s="6"/>
     </row>
-    <row r="693" spans="1:2">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A693" s="1"/>
       <c r="B693" s="6"/>
     </row>
-    <row r="694" spans="1:2">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A694" s="1"/>
       <c r="B694" s="6"/>
     </row>
-    <row r="695" spans="1:2">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A695" s="1"/>
       <c r="B695" s="6"/>
     </row>
-    <row r="696" spans="1:2">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A696" s="1"/>
       <c r="B696" s="6"/>
     </row>
-    <row r="697" spans="1:2">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A697" s="1"/>
       <c r="B697" s="6"/>
     </row>
-    <row r="698" spans="1:2">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A698" s="1"/>
       <c r="B698" s="6"/>
     </row>
-    <row r="699" spans="1:2">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A699" s="1"/>
       <c r="B699" s="6"/>
     </row>
-    <row r="700" spans="1:2">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A700" s="1"/>
       <c r="B700" s="6"/>
     </row>
-    <row r="701" spans="1:2">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A701" s="1"/>
       <c r="B701" s="6"/>
     </row>
-    <row r="702" spans="1:2">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A702" s="1"/>
       <c r="B702" s="6"/>
     </row>
-    <row r="703" spans="1:2">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A703" s="1"/>
       <c r="B703" s="6"/>
     </row>
-    <row r="704" spans="1:2">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A704" s="1"/>
       <c r="B704" s="6"/>
     </row>
-    <row r="705" spans="1:2">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A705" s="1"/>
       <c r="B705" s="6"/>
     </row>
-    <row r="706" spans="1:2">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A706" s="1"/>
       <c r="B706" s="6"/>
     </row>
-    <row r="707" spans="1:2">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A707" s="1"/>
       <c r="B707" s="6"/>
     </row>
-    <row r="708" spans="1:2">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A708" s="1"/>
       <c r="B708" s="6"/>
     </row>
-    <row r="709" spans="1:2">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A709" s="1"/>
       <c r="B709" s="6"/>
     </row>
-    <row r="710" spans="1:2">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A710" s="1"/>
       <c r="B710" s="6"/>
     </row>
-    <row r="711" spans="1:2">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A711" s="1"/>
       <c r="B711" s="6"/>
     </row>
-    <row r="712" spans="1:2">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A712" s="1"/>
       <c r="B712" s="6"/>
     </row>
-    <row r="713" spans="1:2">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A713" s="1"/>
       <c r="B713" s="6"/>
     </row>
-    <row r="714" spans="1:2">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A714" s="1"/>
       <c r="B714" s="6"/>
     </row>
-    <row r="715" spans="1:2">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A715" s="1"/>
       <c r="B715" s="6"/>
     </row>
-    <row r="716" spans="1:2">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A716" s="1"/>
       <c r="B716" s="6"/>
     </row>
-    <row r="717" spans="1:2">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A717" s="1"/>
       <c r="B717" s="6"/>
     </row>
-    <row r="718" spans="1:2">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A718" s="1"/>
       <c r="B718" s="6"/>
     </row>
-    <row r="719" spans="1:2">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A719" s="1"/>
       <c r="B719" s="6"/>
     </row>
-    <row r="720" spans="1:2">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A720" s="1"/>
       <c r="B720" s="6"/>
     </row>
-    <row r="721" spans="1:2">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A721" s="1"/>
       <c r="B721" s="6"/>
     </row>
-    <row r="722" spans="1:2">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A722" s="1"/>
       <c r="B722" s="6"/>
     </row>
-    <row r="723" spans="1:2">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A723" s="1"/>
       <c r="B723" s="6"/>
     </row>
-    <row r="724" spans="1:2">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A724" s="1"/>
       <c r="B724" s="6"/>
     </row>
-    <row r="725" spans="1:2">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A725" s="1"/>
       <c r="B725" s="6"/>
     </row>
-    <row r="726" spans="1:2">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A726" s="1"/>
       <c r="B726" s="6"/>
     </row>
-    <row r="727" spans="1:2">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A727" s="1"/>
       <c r="B727" s="6"/>
     </row>
-    <row r="728" spans="1:2">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A728" s="1"/>
       <c r="B728" s="6"/>
     </row>
-    <row r="729" spans="1:2">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A729" s="1"/>
       <c r="B729" s="6"/>
     </row>
-    <row r="730" spans="1:2">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A730" s="1"/>
       <c r="B730" s="6"/>
     </row>
-    <row r="731" spans="1:2">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A731" s="1"/>
       <c r="B731" s="6"/>
     </row>
-    <row r="732" spans="1:2">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A732" s="1"/>
       <c r="B732" s="6"/>
     </row>
-    <row r="733" spans="1:2">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A733" s="1"/>
       <c r="B733" s="6"/>
     </row>
-    <row r="734" spans="1:2">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A734" s="1"/>
       <c r="B734" s="6"/>
     </row>
-    <row r="735" spans="1:2">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A735" s="1"/>
       <c r="B735" s="6"/>
     </row>
-    <row r="736" spans="1:2">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A736" s="1"/>
       <c r="B736" s="6"/>
     </row>
-    <row r="737" spans="1:2">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A737" s="1"/>
       <c r="B737" s="6"/>
     </row>
-    <row r="738" spans="1:2">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A738" s="1"/>
       <c r="B738" s="6"/>
     </row>
-    <row r="739" spans="1:2">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A739" s="1"/>
       <c r="B739" s="6"/>
     </row>
-    <row r="740" spans="1:2">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A740" s="1"/>
       <c r="B740" s="6"/>
     </row>
-    <row r="741" spans="1:2">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A741" s="1"/>
       <c r="B741" s="6"/>
     </row>
-    <row r="742" spans="1:2">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A742" s="1"/>
       <c r="B742" s="6"/>
     </row>
-    <row r="743" spans="1:2">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A743" s="1"/>
       <c r="B743" s="6"/>
     </row>
-    <row r="744" spans="1:2">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A744" s="1"/>
       <c r="B744" s="6"/>
     </row>
-    <row r="745" spans="1:2">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A745" s="1"/>
       <c r="B745" s="6"/>
     </row>
-    <row r="746" spans="1:2">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A746" s="1"/>
       <c r="B746" s="6"/>
     </row>
-    <row r="747" spans="1:2">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A747" s="1"/>
       <c r="B747" s="6"/>
     </row>
-    <row r="748" spans="1:2">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A748" s="1"/>
       <c r="B748" s="6"/>
     </row>
-    <row r="749" spans="1:2">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A749" s="1"/>
       <c r="B749" s="6"/>
     </row>
-    <row r="750" spans="1:2">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A750" s="1"/>
       <c r="B750" s="6"/>
     </row>
-    <row r="751" spans="1:2">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A751" s="1"/>
       <c r="B751" s="6"/>
     </row>
-    <row r="752" spans="1:2">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A752" s="1"/>
       <c r="B752" s="6"/>
     </row>
-    <row r="753" spans="1:2">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A753" s="1"/>
       <c r="B753" s="6"/>
     </row>
-    <row r="754" spans="1:2">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A754" s="1"/>
       <c r="B754" s="6"/>
     </row>
-    <row r="755" spans="1:2">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A755" s="1"/>
       <c r="B755" s="6"/>
     </row>
-    <row r="756" spans="1:2">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A756" s="1"/>
       <c r="B756" s="6"/>
     </row>
-    <row r="757" spans="1:2">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A757" s="1"/>
       <c r="B757" s="6"/>
     </row>
-    <row r="758" spans="1:2">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A758" s="1"/>
       <c r="B758" s="6"/>
     </row>
-    <row r="759" spans="1:2">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A759" s="1"/>
       <c r="B759" s="6"/>
     </row>
-    <row r="760" spans="1:2">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A760" s="1"/>
       <c r="B760" s="6"/>
     </row>
-    <row r="761" spans="1:2">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A761" s="1"/>
       <c r="B761" s="6"/>
     </row>
-    <row r="762" spans="1:2">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A762" s="1"/>
       <c r="B762" s="6"/>
     </row>
-    <row r="763" spans="1:2">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A763" s="1"/>
       <c r="B763" s="6"/>
     </row>
-    <row r="764" spans="1:2">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A764" s="1"/>
       <c r="B764" s="6"/>
     </row>
-    <row r="765" spans="1:2">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A765" s="1"/>
       <c r="B765" s="6"/>
     </row>
-    <row r="766" spans="1:2">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A766" s="1"/>
       <c r="B766" s="6"/>
     </row>
-    <row r="767" spans="1:2">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A767" s="1"/>
       <c r="B767" s="6"/>
     </row>
-    <row r="768" spans="1:2">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A768" s="1"/>
       <c r="B768" s="6"/>
     </row>
-    <row r="769" spans="1:2">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A769" s="1"/>
       <c r="B769" s="6"/>
     </row>
-    <row r="770" spans="1:2">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A770" s="1"/>
       <c r="B770" s="6"/>
     </row>
-    <row r="771" spans="1:2">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A771" s="1"/>
       <c r="B771" s="6"/>
     </row>
-    <row r="772" spans="1:2">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A772" s="1"/>
       <c r="B772" s="6"/>
     </row>
-    <row r="773" spans="1:2">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A773" s="1"/>
       <c r="B773" s="6"/>
     </row>
-    <row r="774" spans="1:2">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A774" s="1"/>
       <c r="B774" s="6"/>
     </row>
-    <row r="775" spans="1:2">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A775" s="1"/>
       <c r="B775" s="6"/>
     </row>
-    <row r="776" spans="1:2">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A776" s="1"/>
       <c r="B776" s="6"/>
     </row>
-    <row r="777" spans="1:2">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A777" s="1"/>
       <c r="B777" s="6"/>
     </row>
-    <row r="778" spans="1:2">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A778" s="1"/>
       <c r="B778" s="6"/>
     </row>
-    <row r="779" spans="1:2">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A779" s="1"/>
       <c r="B779" s="6"/>
     </row>
-    <row r="780" spans="1:2">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A780" s="1"/>
       <c r="B780" s="6"/>
     </row>
-    <row r="781" spans="1:2">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A781" s="1"/>
       <c r="B781" s="6"/>
     </row>
-    <row r="782" spans="1:2">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A782" s="1"/>
       <c r="B782" s="6"/>
     </row>
-    <row r="783" spans="1:2">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A783" s="1"/>
       <c r="B783" s="6"/>
     </row>
-    <row r="784" spans="1:2">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A784" s="1"/>
       <c r="B784" s="6"/>
     </row>
-    <row r="785" spans="1:2">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A785" s="1"/>
       <c r="B785" s="6"/>
     </row>
-    <row r="786" spans="1:2">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A786" s="1"/>
       <c r="B786" s="6"/>
     </row>
-    <row r="787" spans="1:2">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A787" s="1"/>
       <c r="B787" s="6"/>
     </row>
-    <row r="788" spans="1:2">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A788" s="1"/>
       <c r="B788" s="6"/>
     </row>
-    <row r="789" spans="1:2">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A789" s="1"/>
       <c r="B789" s="6"/>
     </row>
-    <row r="790" spans="1:2">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A790" s="1"/>
       <c r="B790" s="6"/>
     </row>
-    <row r="791" spans="1:2">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A791" s="1"/>
       <c r="B791" s="6"/>
     </row>
-    <row r="792" spans="1:2">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A792" s="1"/>
       <c r="B792" s="6"/>
     </row>
-    <row r="793" spans="1:2">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A793" s="1"/>
       <c r="B793" s="6"/>
     </row>
-    <row r="794" spans="1:2">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A794" s="1"/>
       <c r="B794" s="6"/>
     </row>
-    <row r="795" spans="1:2">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A795" s="1"/>
       <c r="B795" s="6"/>
     </row>
-    <row r="796" spans="1:2">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A796" s="1"/>
       <c r="B796" s="6"/>
     </row>
-    <row r="797" spans="1:2">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A797" s="1"/>
       <c r="B797" s="6"/>
     </row>
-    <row r="798" spans="1:2">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A798" s="1"/>
       <c r="B798" s="6"/>
     </row>
-    <row r="799" spans="1:2">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A799" s="1"/>
       <c r="B799" s="6"/>
     </row>
-    <row r="800" spans="1:2">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A800" s="1"/>
       <c r="B800" s="6"/>
     </row>
-    <row r="801" spans="1:2">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A801" s="1"/>
       <c r="B801" s="6"/>
     </row>
-    <row r="802" spans="1:2">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A802" s="1"/>
       <c r="B802" s="6"/>
     </row>
-    <row r="803" spans="1:2">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A803" s="1"/>
       <c r="B803" s="6"/>
     </row>
-    <row r="804" spans="1:2">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A804" s="1"/>
       <c r="B804" s="6"/>
     </row>
-    <row r="805" spans="1:2">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A805" s="1"/>
       <c r="B805" s="6"/>
     </row>
-    <row r="806" spans="1:2">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A806" s="1"/>
       <c r="B806" s="6"/>
     </row>
-    <row r="807" spans="1:2">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A807" s="1"/>
       <c r="B807" s="6"/>
     </row>
-    <row r="808" spans="1:2">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A808" s="1"/>
       <c r="B808" s="6"/>
     </row>
-    <row r="809" spans="1:2">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A809" s="1"/>
       <c r="B809" s="6"/>
     </row>
-    <row r="810" spans="1:2">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A810" s="1"/>
       <c r="B810" s="6"/>
     </row>
-    <row r="811" spans="1:2">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A811" s="1"/>
       <c r="B811" s="6"/>
     </row>
-    <row r="812" spans="1:2">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A812" s="1"/>
       <c r="B812" s="6"/>
     </row>
-    <row r="813" spans="1:2">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A813" s="1"/>
       <c r="B813" s="6"/>
     </row>
-    <row r="814" spans="1:2">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A814" s="1"/>
       <c r="B814" s="6"/>
     </row>
-    <row r="815" spans="1:2">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A815" s="1"/>
       <c r="B815" s="6"/>
     </row>
-    <row r="816" spans="1:2">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A816" s="1"/>
       <c r="B816" s="6"/>
     </row>
-    <row r="817" spans="1:2">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A817" s="1"/>
       <c r="B817" s="6"/>
     </row>
-    <row r="818" spans="1:2">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A818" s="1"/>
       <c r="B818" s="6"/>
     </row>
-    <row r="819" spans="1:2">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A819" s="1"/>
       <c r="B819" s="6"/>
     </row>
-    <row r="820" spans="1:2">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A820" s="1"/>
       <c r="B820" s="6"/>
     </row>
-    <row r="821" spans="1:2">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A821" s="1"/>
       <c r="B821" s="6"/>
     </row>
-    <row r="822" spans="1:2">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A822" s="1"/>
       <c r="B822" s="6"/>
     </row>
-    <row r="823" spans="1:2">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A823" s="1"/>
       <c r="B823" s="6"/>
     </row>
-    <row r="824" spans="1:2">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A824" s="1"/>
       <c r="B824" s="6"/>
     </row>
-    <row r="825" spans="1:2">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A825" s="1"/>
       <c r="B825" s="6"/>
     </row>
-    <row r="826" spans="1:2">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A826" s="1"/>
       <c r="B826" s="6"/>
     </row>
-    <row r="827" spans="1:2">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A827" s="1"/>
       <c r="B827" s="6"/>
     </row>
-    <row r="828" spans="1:2">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A828" s="1"/>
       <c r="B828" s="6"/>
     </row>
-    <row r="829" spans="1:2">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A829" s="1"/>
       <c r="B829" s="6"/>
     </row>
-    <row r="830" spans="1:2">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A830" s="1"/>
       <c r="B830" s="6"/>
     </row>
-    <row r="831" spans="1:2">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A831" s="1"/>
       <c r="B831" s="6"/>
     </row>
-    <row r="832" spans="1:2">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A832" s="1"/>
       <c r="B832" s="6"/>
     </row>
-    <row r="833" spans="1:2">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A833" s="1"/>
       <c r="B833" s="6"/>
     </row>
-    <row r="834" spans="1:2">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A834" s="1"/>
       <c r="B834" s="6"/>
     </row>
-    <row r="835" spans="1:2">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A835" s="1"/>
       <c r="B835" s="6"/>
     </row>
-    <row r="836" spans="1:2">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A836" s="1"/>
       <c r="B836" s="6"/>
     </row>
-    <row r="837" spans="1:2">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A837" s="1"/>
       <c r="B837" s="6"/>
     </row>
-    <row r="838" spans="1:2">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A838" s="1"/>
       <c r="B838" s="6"/>
     </row>
-    <row r="839" spans="1:2">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A839" s="1"/>
       <c r="B839" s="6"/>
     </row>
-    <row r="840" spans="1:2">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A840" s="1"/>
       <c r="B840" s="6"/>
     </row>
-    <row r="841" spans="1:2">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A841" s="1"/>
       <c r="B841" s="6"/>
     </row>
-    <row r="842" spans="1:2">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A842" s="1"/>
       <c r="B842" s="6"/>
     </row>
-    <row r="843" spans="1:2">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A843" s="1"/>
       <c r="B843" s="6"/>
     </row>
-    <row r="844" spans="1:2">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A844" s="1"/>
       <c r="B844" s="6"/>
     </row>
-    <row r="845" spans="1:2">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A845" s="1"/>
       <c r="B845" s="6"/>
     </row>
-    <row r="846" spans="1:2">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A846" s="1"/>
       <c r="B846" s="6"/>
     </row>
-    <row r="847" spans="1:2">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A847" s="1"/>
       <c r="B847" s="6"/>
     </row>
-    <row r="848" spans="1:2">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A848" s="1"/>
       <c r="B848" s="6"/>
     </row>
-    <row r="849" spans="1:2">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A849" s="1"/>
       <c r="B849" s="6"/>
     </row>
-    <row r="850" spans="1:2">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A850" s="1"/>
       <c r="B850" s="6"/>
     </row>
-    <row r="851" spans="1:2">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A851" s="1"/>
       <c r="B851" s="6"/>
     </row>
-    <row r="852" spans="1:2">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A852" s="1"/>
       <c r="B852" s="6"/>
     </row>
-    <row r="853" spans="1:2">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A853" s="1"/>
       <c r="B853" s="6"/>
     </row>
-    <row r="854" spans="1:2">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A854" s="1"/>
       <c r="B854" s="6"/>
     </row>
-    <row r="855" spans="1:2">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A855" s="1"/>
       <c r="B855" s="6"/>
     </row>
-    <row r="856" spans="1:2">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A856" s="1"/>
       <c r="B856" s="6"/>
     </row>
-    <row r="857" spans="1:2">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A857" s="1"/>
       <c r="B857" s="6"/>
     </row>
-    <row r="858" spans="1:2">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A858" s="1"/>
       <c r="B858" s="6"/>
     </row>
-    <row r="859" spans="1:2">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A859" s="1"/>
       <c r="B859" s="6"/>
     </row>
-    <row r="860" spans="1:2">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A860" s="1"/>
       <c r="B860" s="6"/>
     </row>
-    <row r="861" spans="1:2">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A861" s="1"/>
       <c r="B861" s="6"/>
     </row>
-    <row r="862" spans="1:2">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A862" s="1"/>
       <c r="B862" s="6"/>
     </row>
-    <row r="863" spans="1:2">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A863" s="1"/>
       <c r="B863" s="6"/>
     </row>
-    <row r="864" spans="1:2">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A864" s="1"/>
       <c r="B864" s="6"/>
     </row>
-    <row r="865" spans="1:2">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A865" s="1"/>
       <c r="B865" s="6"/>
     </row>
-    <row r="866" spans="1:2">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A866" s="1"/>
       <c r="B866" s="6"/>
     </row>
-    <row r="867" spans="1:2">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A867" s="1"/>
       <c r="B867" s="6"/>
     </row>
-    <row r="868" spans="1:2">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A868" s="1"/>
       <c r="B868" s="6"/>
     </row>
-    <row r="869" spans="1:2">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A869" s="1"/>
       <c r="B869" s="6"/>
     </row>
-    <row r="870" spans="1:2">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A870" s="1"/>
       <c r="B870" s="6"/>
     </row>
-    <row r="871" spans="1:2">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A871" s="1"/>
       <c r="B871" s="6"/>
     </row>
-    <row r="872" spans="1:2">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A872" s="1"/>
       <c r="B872" s="6"/>
     </row>
-    <row r="873" spans="1:2">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A873" s="1"/>
       <c r="B873" s="6"/>
     </row>
-    <row r="874" spans="1:2">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A874" s="1"/>
       <c r="B874" s="6"/>
     </row>
-    <row r="875" spans="1:2">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A875" s="1"/>
       <c r="B875" s="6"/>
     </row>
-    <row r="876" spans="1:2">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A876" s="1"/>
       <c r="B876" s="6"/>
     </row>
-    <row r="877" spans="1:2">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A877" s="1"/>
       <c r="B877" s="6"/>
     </row>
-    <row r="878" spans="1:2">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A878" s="1"/>
       <c r="B878" s="6"/>
     </row>
-    <row r="879" spans="1:2">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A879" s="1"/>
       <c r="B879" s="6"/>
     </row>
-    <row r="880" spans="1:2">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A880" s="1"/>
       <c r="B880" s="6"/>
     </row>
-    <row r="881" spans="1:2">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A881" s="1"/>
       <c r="B881" s="6"/>
     </row>
-    <row r="882" spans="1:2">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A882" s="1"/>
       <c r="B882" s="6"/>
     </row>
-    <row r="883" spans="1:2">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A883" s="1"/>
       <c r="B883" s="6"/>
     </row>
-    <row r="884" spans="1:2">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A884" s="1"/>
       <c r="B884" s="6"/>
     </row>
-    <row r="885" spans="1:2">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A885" s="1"/>
       <c r="B885" s="6"/>
     </row>
-    <row r="886" spans="1:2">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A886" s="1"/>
       <c r="B886" s="6"/>
     </row>
-    <row r="887" spans="1:2">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A887" s="1"/>
       <c r="B887" s="6"/>
     </row>
-    <row r="888" spans="1:2">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A888" s="1"/>
       <c r="B888" s="6"/>
     </row>
-    <row r="889" spans="1:2">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A889" s="1"/>
       <c r="B889" s="6"/>
     </row>
-    <row r="890" spans="1:2">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A890" s="1"/>
       <c r="B890" s="6"/>
     </row>
-    <row r="891" spans="1:2">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A891" s="1"/>
       <c r="B891" s="6"/>
     </row>
-    <row r="892" spans="1:2">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A892" s="1"/>
       <c r="B892" s="6"/>
     </row>
-    <row r="893" spans="1:2">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A893" s="1"/>
       <c r="B893" s="6"/>
     </row>
-    <row r="894" spans="1:2">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A894" s="1"/>
       <c r="B894" s="6"/>
     </row>
-    <row r="895" spans="1:2">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A895" s="1"/>
       <c r="B895" s="6"/>
     </row>
-    <row r="896" spans="1:2">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A896" s="1"/>
       <c r="B896" s="6"/>
     </row>
-    <row r="897" spans="1:2">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A897" s="1"/>
       <c r="B897" s="6"/>
     </row>
-    <row r="898" spans="1:2">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A898" s="1"/>
       <c r="B898" s="6"/>
     </row>
-    <row r="899" spans="1:2">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A899" s="1"/>
       <c r="B899" s="6"/>
     </row>
-    <row r="900" spans="1:2">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A900" s="1"/>
       <c r="B900" s="6"/>
     </row>
-    <row r="901" spans="1:2">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A901" s="1"/>
       <c r="B901" s="6"/>
     </row>
-    <row r="902" spans="1:2">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A902" s="1"/>
       <c r="B902" s="6"/>
     </row>
-    <row r="903" spans="1:2">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A903" s="1"/>
       <c r="B903" s="6"/>
     </row>
-    <row r="904" spans="1:2">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A904" s="1"/>
       <c r="B904" s="6"/>
     </row>
-    <row r="905" spans="1:2">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A905" s="1"/>
       <c r="B905" s="6"/>
     </row>
-    <row r="906" spans="1:2">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A906" s="1"/>
       <c r="B906" s="6"/>
     </row>
-    <row r="907" spans="1:2">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A907" s="1"/>
       <c r="B907" s="6"/>
     </row>
-    <row r="908" spans="1:2">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A908" s="1"/>
       <c r="B908" s="6"/>
     </row>
-    <row r="909" spans="1:2">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A909" s="1"/>
       <c r="B909" s="6"/>
     </row>
-    <row r="910" spans="1:2">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A910" s="1"/>
       <c r="B910" s="6"/>
     </row>
-    <row r="911" spans="1:2">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A911" s="1"/>
       <c r="B911" s="6"/>
     </row>
-    <row r="912" spans="1:2">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A912" s="1"/>
       <c r="B912" s="6"/>
     </row>
-    <row r="913" spans="1:2">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A913" s="1"/>
       <c r="B913" s="6"/>
     </row>
-    <row r="914" spans="1:2">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A914" s="1"/>
       <c r="B914" s="6"/>
     </row>
-    <row r="915" spans="1:2">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A915" s="1"/>
       <c r="B915" s="6"/>
     </row>
-    <row r="916" spans="1:2">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A916" s="1"/>
       <c r="B916" s="6"/>
     </row>
-    <row r="917" spans="1:2">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A917" s="1"/>
       <c r="B917" s="6"/>
     </row>
-    <row r="918" spans="1:2">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A918" s="1"/>
       <c r="B918" s="6"/>
     </row>
-    <row r="919" spans="1:2">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A919" s="1"/>
       <c r="B919" s="6"/>
     </row>
-    <row r="920" spans="1:2">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A920" s="1"/>
       <c r="B920" s="6"/>
     </row>
-    <row r="921" spans="1:2">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A921" s="1"/>
       <c r="B921" s="6"/>
     </row>
-    <row r="922" spans="1:2">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A922" s="1"/>
       <c r="B922" s="6"/>
     </row>
-    <row r="923" spans="1:2">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A923" s="1"/>
       <c r="B923" s="6"/>
     </row>
-    <row r="924" spans="1:2">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A924" s="1"/>
       <c r="B924" s="6"/>
     </row>
-    <row r="925" spans="1:2">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A925" s="1"/>
       <c r="B925" s="6"/>
     </row>
-    <row r="926" spans="1:2">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A926" s="1"/>
       <c r="B926" s="6"/>
     </row>
-    <row r="927" spans="1:2">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A927" s="1"/>
       <c r="B927" s="6"/>
     </row>
-    <row r="928" spans="1:2">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A928" s="1"/>
       <c r="B928" s="6"/>
     </row>
-    <row r="929" spans="1:2">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A929" s="1"/>
       <c r="B929" s="6"/>
     </row>
-    <row r="930" spans="1:2">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A930" s="1"/>
       <c r="B930" s="6"/>
     </row>
-    <row r="931" spans="1:2">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A931" s="1"/>
       <c r="B931" s="6"/>
     </row>
-    <row r="932" spans="1:2">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A932" s="1"/>
       <c r="B932" s="6"/>
     </row>
-    <row r="933" spans="1:2">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A933" s="1"/>
       <c r="B933" s="6"/>
     </row>
-    <row r="934" spans="1:2">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A934" s="1"/>
       <c r="B934" s="6"/>
     </row>
-    <row r="935" spans="1:2">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A935" s="1"/>
       <c r="B935" s="6"/>
     </row>
-    <row r="936" spans="1:2">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A936" s="1"/>
       <c r="B936" s="6"/>
     </row>
-    <row r="937" spans="1:2">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A937" s="1"/>
       <c r="B937" s="6"/>
     </row>
-    <row r="938" spans="1:2">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A938" s="1"/>
       <c r="B938" s="6"/>
     </row>
-    <row r="939" spans="1:2">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A939" s="1"/>
       <c r="B939" s="6"/>
     </row>
-    <row r="940" spans="1:2">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A940" s="1"/>
       <c r="B940" s="6"/>
     </row>
-    <row r="941" spans="1:2">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A941" s="1"/>
       <c r="B941" s="6"/>
     </row>
-    <row r="942" spans="1:2">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A942" s="1"/>
       <c r="B942" s="6"/>
     </row>
-    <row r="943" spans="1:2">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A943" s="1"/>
       <c r="B943" s="6"/>
     </row>
-    <row r="944" spans="1:2">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A944" s="1"/>
       <c r="B944" s="6"/>
     </row>
-    <row r="945" spans="1:2">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A945" s="1"/>
       <c r="B945" s="6"/>
     </row>
@@ -10243,5 +10243,6 @@
     <hyperlink ref="A543" r:id="rId542" xr:uid="{E4BAC69B-80C2-EB47-99F1-98E2F3C8D14D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId543"/>
 </worksheet>
 </file>